--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-Cyanosis</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/SILPH-Cyanosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,19 +107,19 @@
     <t>54622005</t>
   </si>
   <si>
-    <t>Negative</t>
+    <t>Normal oxygen supply</t>
   </si>
   <si>
     <t>95837007</t>
   </si>
   <si>
-    <t>General</t>
+    <t>Central cyanosis</t>
   </si>
   <si>
     <t>95442007</t>
   </si>
   <si>
-    <t>Peripheral</t>
+    <t>Peripheral cyanosis</t>
   </si>
   <si>
     <t/>
@@ -180,15 +180,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Normal oxygen supply</t>
-  </si>
-  <si>
-    <t>Central cyanosis</t>
-  </si>
-  <si>
-    <t>Peripheral cyanosis</t>
   </si>
 </sst>
 </file>
@@ -628,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>47</v>
@@ -649,7 +640,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>47</v>
@@ -670,7 +661,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>47</v>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -107,79 +107,88 @@
     <t>54622005</t>
   </si>
   <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>95837007</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>95442007</t>
+  </si>
+  <si>
+    <t>Peripheral</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>used-codesystem</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>displayLanguage</t>
+  </si>
+  <si>
+    <t>en-US,en;q=0.9</t>
+  </si>
+  <si>
+    <t>warning-draft</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-Cyanosis|1</t>
+  </si>
+  <si>
+    <t>includeDesignations</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Normal oxygen supply</t>
   </si>
   <si>
-    <t>95837007</t>
-  </si>
-  <si>
     <t>Central cyanosis</t>
   </si>
   <si>
-    <t>95442007</t>
-  </si>
-  <si>
     <t>Peripheral cyanosis</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>used-codesystem</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct|http://snomed.info/sct/900000000000207008/version/20241001</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
-    <t>warning-draft</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-Cyanosis|1</t>
-  </si>
-  <si>
-    <t>includeDesignations</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>47</v>
@@ -640,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>47</v>
@@ -661,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>47</v>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,52 +143,34 @@
     <t>version</t>
   </si>
   <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
     <t>warning-draft</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-Cyanosis|1</t>
   </si>
   <si>
-    <t>includeDesignations</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Normal oxygen supply</t>
-  </si>
-  <si>
-    <t>Central cyanosis</t>
-  </si>
-  <si>
-    <t>Peripheral cyanosis</t>
   </si>
 </sst>
 </file>
@@ -526,7 +508,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,22 +544,6 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -595,30 +561,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>37</v>
@@ -628,18 +594,18 @@
         <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>37</v>
@@ -649,18 +615,18 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>37</v>
@@ -670,13 +636,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/SILPH-Cyanosis</t>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-Cyanosis</t>
   </si>
   <si>
     <t>Version</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-Cyanosis.xlsx
+++ b/ValueSet-SILPH-Cyanosis.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
